--- a/backend/src/main/resources/static/data đề test (4).xlsx
+++ b/backend/src/main/resources/static/data đề test (4).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="178">
   <si>
     <t>CÂU HỎI</t>
   </si>
@@ -46,223 +46,226 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Lực nào là cơ sở để tạo nên cân lò xo?</t>
+    <t>Môn bóng bàn xuất hiện đầu tiên tại nước nào?</t>
   </si>
   <si>
-    <t>lực đàn hồi</t>
+    <t>Anh</t>
   </si>
   <si>
     <t>GÓI 1</t>
   </si>
   <si>
-    <t>Những con ong cái mà mất khả năng sinh sản sẽ trở thành loại ong nào?</t>
+    <t>Tiếng đàn nào của dân tộc Vân Kiều đã đi vào một sáng tác của nhạc sĩ Huy Thục?</t>
   </si>
   <si>
-    <t>ong thợ</t>
+    <t>Ta Lư</t>
   </si>
   <si>
-    <t>How many days total are there in October and November?</t>
+    <t>Lễ hội nào được tổ chức vào ngày 9/8 âm lịch, gắn liền với tục thờ cúng thuỷ thần, tục hiến sinh của người dân miền biển Hải Phòng?</t>
   </si>
   <si>
-    <t>61/sixty one</t>
+    <t>Chọi trâu</t>
   </si>
   <si>
-    <t>Nếu ở Bắc Bán Cầu đang là mùa hè thì ở Nam Bán Cầu đang là mùa nào?</t>
+    <t>Trong truyện Tấm Cám, sự việc Tấm biến hóa từ kiếp này sang kiếp khác diễn ra mấy lần?</t>
   </si>
   <si>
-    <t>đông</t>
+    <t>3</t>
   </si>
   <si>
-    <t>Loài động vật nào biến nhiệt: sên, gà, rùa, khỉ, chim sáo?</t>
+    <t>Tầng lớp võ sĩ nào người Nhật Bản hình thành từ TK 6 mà cuộc đời và sự nghiệp của họ được gắn liền với 3 từ: danh dự, công bằng và trung thành?</t>
   </si>
   <si>
-    <t>sên, rùa</t>
+    <t>Samurai</t>
   </si>
   <si>
-    <t>Trong nhóm IIIA, nguyên tố nào không phải là kim loại?</t>
+    <t>Năm 1994, đường ngầm dưới biển đầu tiên nối liền 2 quốc gia nào ở châu Âu đã được khánh thành và đưa vào hoạt động?</t>
   </si>
   <si>
-    <t>Bo</t>
+    <t>Anh, Pháp</t>
   </si>
   <si>
-    <t>Danh hiệu "Nghệ sĩ nhân dân" dành cho nghệ sĩ xuất sắc có thời gian tham gia nghệ thuật từ bao nhiêu năm trở lên?</t>
+    <t>FIDE là tên viết tắt của tổ chức thể thao nào?</t>
   </si>
   <si>
-    <t>20 năm</t>
+    <t>Liên đoàn Cờ vua Thế giới</t>
   </si>
   <si>
-    <t>MAMA là giải thưởng âm nhạc được tổ chức hằng năm dành cho châu lục nào?</t>
+    <t>Trên thang pH, ... là độ axit cao nhất, ... là độ trung gian và ... là độ kiềm cao nhất.</t>
   </si>
   <si>
-    <t>Châu Á</t>
+    <t>Trong vũ trụ có khoảng 100 tỉ ..., mỗi ... có khoảng 1 tỉ sao.</t>
   </si>
   <si>
-    <t>Đơn vị của cảm ứng từ - T được đặt tên theo nhà phát minh nào?</t>
-  </si>
-  <si>
-    <t>Tesla/ Nikola Tesla</t>
+    <t>thiên hà</t>
   </si>
   <si>
     <t>GÓI 2</t>
   </si>
   <si>
-    <t>Hộp đen trên máy bay có màu gì?</t>
+    <t>Một chất liệu có bề ngoài sáng, mờ hoặc trong là tùy thuộc vào sự phản chiếu, hấp thụ hoặc truyền ... của nó.</t>
   </si>
   <si>
-    <t>cam</t>
+    <t>ánh sáng</t>
   </si>
   <si>
-    <t xml:space="preserve">What direction is the opposite of Northwest? </t>
+    <t>Dựa vào độ cao của đám khói, thể tích của vụn đá bắn ra và sự mãnh liệt của vụ nổ, người ta xếp hạng chỉ số sức nổ của núi lửa theo các mức nào?</t>
   </si>
   <si>
-    <t>Southeast</t>
+    <t>0 đến 8</t>
   </si>
   <si>
-    <t>Bến tàu không số K15 - nơi khởi nguồn của con đường Hồ Chí Minh trên biển nay thuộc tỉnh nào?</t>
+    <t>Đội bóng nào là đội bóng châu Á đầu tiên lọt vào tới vòng bán kết một kỳ World Cup?</t>
   </si>
   <si>
-    <t>Hải Phòng</t>
+    <t>Hàn Quốc</t>
   </si>
   <si>
-    <t>Sấm ký Trạng Trình là tác phẩm nói về vị trạng nguyên nào?</t>
+    <t>Ngày 23/4 hàng năm được chọn là ngày Thế giới ...</t>
   </si>
   <si>
-    <t>Nguyễn Bình Khiêm</t>
+    <t>Đọc sách</t>
   </si>
   <si>
-    <t>Với một lượng mỡ và tinh bột như nhau, thì loại nào cho nhiều năng lượng hơn?</t>
+    <t>Ngành sản xuất vật chất xuất hiện sớm nhất trong lịch sử loài người là ...</t>
   </si>
   <si>
-    <t>Mỡ</t>
+    <t>nông nghiệp</t>
   </si>
   <si>
-    <t>Hoa hướng dương luôn hướng về phía Mặt Trời thuộc hình thức vận động sinh trưởng nào?</t>
+    <t>Loại đàn của dân tộc Thái, Tày làm bằng quả bầu, có 2 hoặc 3 dây được gọi là đàn gì?</t>
   </si>
   <si>
-    <t>Hướng sáng</t>
+    <t>Đàn tính</t>
   </si>
   <si>
-    <t>Trong cấp số nhân, số hạng sau là tích của số hạng liền trước với một số hạng nào?</t>
+    <t>Nhiên liệu nào tồn tại dưới dạng hóa thạch của thực vật?</t>
   </si>
   <si>
-    <t>công bội</t>
+    <t>Than đá</t>
   </si>
   <si>
-    <t>Hoàn thành câu tục ngữ sau: "Kiến đen tha trứng lên cao/Thế nào cũng có … rất to"</t>
+    <t>Năm 1766 là năm mà nhà bác học người Anh Henry Cavendish phát hiện ra một chất khí. Đó là khí nào?</t>
   </si>
   <si>
-    <t>Mưa rào</t>
+    <t>Hydro</t>
   </si>
   <si>
-    <t>Bão từ mạnh thường chỉ xuất hiện trong thời gian hoạt động mạnh của ...</t>
+    <t>Cầu vồng được tạo ra bởi sự ... ánh sáng qua nước mưa.</t>
   </si>
   <si>
-    <t>Mặt Trời</t>
+    <t>tán xạ</t>
   </si>
   <si>
-    <t>Môn thể thao nào thường có các kĩ năng chơi như đập bóng và chắn bóng?</t>
+    <t>Nơi biển và đất liền gặp nhau là ...</t>
   </si>
   <si>
-    <t>bóng chuyền</t>
+    <t>bờ biển</t>
   </si>
   <si>
-    <t>Khối lượng hàng hóa không bao gồm bao bì được gọi là khối lượng ...</t>
+    <t>Cố đô Hoa Lư (Ninh Bình) là đất tổ của nghệ thuật nào?</t>
   </si>
   <si>
-    <t>tịnh</t>
+    <t>Chèo</t>
   </si>
   <si>
-    <t>In which city is ASEAN secretariat located?</t>
+    <t>Hiện tượng truyền nhiệt nào thực hiện được trong chân không?</t>
   </si>
   <si>
-    <t>Jakarta</t>
+    <t>Bức xạ nhiệt</t>
   </si>
   <si>
     <t>GÓI 3</t>
   </si>
   <si>
-    <t>Hoa cái của cây phi lao thụ phấn nhờ tác nhân tự nhiên nào?</t>
+    <t>Hiện nay bộ môn thể thao Tennis thi đấu trên những loại sân nào?</t>
   </si>
   <si>
-    <t>Gió</t>
+    <t>Sân cỏ, sân đất nện, sân cứng</t>
   </si>
   <si>
-    <t>Dòng điện ... là dòng chuyển động theo một hướng của các điện tích</t>
+    <t>Chiếc thuyền nguyên thủy (cổ xưa nhất thế giới) thuộc loại thuyền ...</t>
   </si>
   <si>
-    <t>một chiều</t>
+    <t>độc mộc</t>
   </si>
   <si>
-    <t>Phép đối xứng trục bảo toàn ... của hai điểm bất kì</t>
+    <t>Trận chiến "Điện Biên Phủ trên không" của quân và dân miền Bắc đã diễn ra trong ... ngày đêm.</t>
   </si>
   <si>
-    <t>khoảng cách</t>
+    <t>12</t>
   </si>
   <si>
-    <t>Phong trào "Tết trồng cây" do ai khởi xướng?</t>
+    <t>Mon, Mual là tên tự gọi của dân tộc nào ở nước ta?</t>
   </si>
   <si>
-    <t>Bác Hồ</t>
+    <t>Mường</t>
   </si>
   <si>
-    <t>Theo cách đo lường của người Việt Nam, 1 lượng vàng tương đương bao nhiêu chỉ vàng?</t>
+    <t>Để chế tạo diêm an toàn người ta dùng loại phốt pho nào?</t>
   </si>
   <si>
-    <t>10</t>
+    <t>Phốt pho đỏ</t>
   </si>
   <si>
-    <t>Ký tự nào thường được dùng để phân cách giữa tên riêng và tên miền của email?</t>
+    <t>Có bao nhiêu làn bơi trong hồ bơi dành cho cuộc thi Olympic?</t>
   </si>
   <si>
-    <t>@</t>
+    <t>8</t>
   </si>
   <si>
-    <t>Nhà thơ nào được đánh giá là "Nhà thơ cắm lá cờ chiến thắng cho thơ mới"?</t>
+    <t>Ngày Cá tháng tư bắt nguồn từ quốc gia nào?</t>
   </si>
   <si>
-    <t>Thế Lữ</t>
+    <t>Pháp</t>
   </si>
   <si>
-    <t>Các chất điện li mạnh có độ điện li bằng bao nhiêu?</t>
+    <t>Menton (trong tinh dầu bạc hà) có công thức phân tử C10H18O và chỉ chứa 1 liên kết đôi. Vậy menton có cấu tạo mạch ...</t>
   </si>
   <si>
-    <t>1</t>
+    <t>vòng</t>
   </si>
   <si>
-    <t>Giải quần vợt Grand Slam nào được tổ chức đầu tiên trong năm?</t>
+    <t>Bắt đầu từ năm 2003, Đảng và Nhà nước ta chính thức chọn tháng Ba hằng năm là "tháng ...".</t>
   </si>
   <si>
-    <t xml:space="preserve"> Úc mở rộng</t>
+    <t>Thanh niên</t>
   </si>
   <si>
-    <t>What is the sweet subtance made by bees?</t>
+    <t>Địa danh nổi tiếng mũi Hảo Vọng nằm ở quốc gia nào?</t>
   </si>
   <si>
-    <t>Honey</t>
+    <t>Nam Phi</t>
   </si>
   <si>
-    <t>Ba vectơ được gọi là đồng phẳng nếu các giá của chúng cùng ... với một mặt phẳng.</t>
+    <t>Đoạn sông Mekông chảy qua quốc gia nào có chiều dài dài nhất trong các quốc gia nó chảy qua?</t>
   </si>
   <si>
-    <t>song song</t>
+    <t>Lào</t>
   </si>
   <si>
-    <t>Bãi Tự Nhiên , đầm Nhất Dạ gợi cho ta nhớ tới truyện cổ tích nào?</t>
+    <t>Hippocrate được xem là người thầy thuốc sáng lập ra nền y học hiện đại là người nước nào?</t>
   </si>
   <si>
-    <t>Chử Đồng Tử</t>
+    <t>Hy Lạp</t>
   </si>
   <si>
-    <t>Câu nói "người mà vùng tỉnh Sơn ta vẫn khen cái tài viết chữ rất nhanh và rất đẹp" nhắc đến nhân vật văn học nào?</t>
+    <t>Trong quần vợt, quả bóng đầu tiên được đánh đi gọi là gì?</t>
   </si>
   <si>
-    <t>Huấn Cao</t>
+    <t>Giao bóng</t>
   </si>
   <si>
-    <t>Tương Dương là đơn vị hành chính cấp huyện có diện tích lớn nhất thuộc tỉnh nào nước ta?</t>
+    <t>Đinh Công Tráng là vị thủ lĩnh quân sự của cuộc khởi nghĩa nổi tiếng nào trong lịch sử?</t>
   </si>
   <si>
-    <t>Nghệ An</t>
+    <t>Khởi nghĩa Ba Đình</t>
+  </si>
+  <si>
+    <t>Hiện tượng này được hình thành do sự dịch chuyển của các mảng nền ở đáy đại dương kèm theo hiện tượng động đất?</t>
+  </si>
+  <si>
+    <t>Sóng thần</t>
   </si>
   <si>
     <t>LƯU Ý</t>
@@ -277,299 +280,290 @@
     <t>KHÔNG THAY ĐỔI CẤU TRÚC CỦA FILE</t>
   </si>
   <si>
-    <t>Trong cờ vua, nước cờ "nhập thành" được thực hiện bởi quân Vua và quân cờ nào nữa?</t>
+    <t>Tổng của bốn số lẻ đầu tiên bằng bao nhiêu?</t>
   </si>
   <si>
-    <t>XE</t>
+    <t>16</t>
   </si>
   <si>
-    <t>Tìm một số tự nhiên biết rằng số đó nhân với 5 rồi cộng với 6 cũng bằng số đó nhân với 6.</t>
+    <t>Vích, đồi mồi, quản đồng và đồi mồi dứa là những loài tiêu biểu của loài động vật này.</t>
   </si>
   <si>
-    <t>6</t>
+    <t>RÙA BIỂN</t>
   </si>
   <si>
-    <t>Việt Nam trở thành thành viên chính thức của WTO vào năm nào?</t>
+    <t>Mục tiêu phát triển ngành này (2001-2010) là trở thành 1 ngành kinh tế mũi nhọn, khai thác có hiệu quả lợi thế về điều kiện tự nhiên, truyền thống văn hóa.</t>
   </si>
   <si>
-    <t>2007</t>
+    <t>DU LỊCH</t>
   </si>
   <si>
-    <t>Tại các công trường xây dựng thường có khẩu hiệu: "... để sản xuất, sản xuất phải ...". Trong dấu ba chấm là từ nào?</t>
+    <t>Trong bài thơ "Trăng trối", Tố Hữu đã viết: "Đời cách mạng từ đây tôi đã hiểu/ Dấn thân vô là phải chịu ...". Trong dấu ba chấm là từ nào?</t>
   </si>
   <si>
-    <t>AN TOÀN</t>
+    <t>TÙ ĐÀY</t>
   </si>
   <si>
-    <t>Đuôi chuồn, cối, tai bèo là một số tên gọi của loại vật dụng nào?</t>
+    <t>Người con gái quê ở Đất Đỏ này hy sinh khi mới 18 tuổi. Đến năm 1994, bà được Nhà nước Việt Nam truy tặng danh hiệu Anh hùng lực lượng vũ trang nhân dân. Bà là ai?</t>
   </si>
   <si>
-    <t>MŨ</t>
+    <t>VÕ THỊ SÁU</t>
   </si>
   <si>
     <t>CHƯỚNG NGẠI VẬT</t>
   </si>
   <si>
-    <t>MŨ BẢO HIỂM</t>
+    <t>CÔN ĐẢO</t>
   </si>
   <si>
-    <t>CNV.PNG</t>
+    <t>cnv.jpg</t>
   </si>
   <si>
-    <t>Tìm hình thích hợp điền vào dấu ?</t>
+    <t>Sắp xếp các đảo theo đúng tỉnh thành trực thuộc.</t>
   </si>
   <si>
-    <t>C</t>
+    <t>DACB</t>
   </si>
   <si>
-    <t>TT1.jpg</t>
+    <t>tt1.jpg</t>
   </si>
   <si>
-    <t>Sắp xếp các trang phục truyền thống tương ứng với các dân tộc?</t>
+    <t>Tìm hình còn thiếu sao cho đúng quy luật.</t>
   </si>
   <si>
-    <t>BEDCA</t>
+    <t>B</t>
   </si>
   <si>
-    <t>TT2.jpg</t>
+    <t>tt2.jpg</t>
   </si>
   <si>
-    <t>Điền số thích hợp vào dấu ?</t>
+    <t>Đây là gì ?</t>
   </si>
   <si>
-    <t>TT3.jpg</t>
+    <t>Kim cương</t>
   </si>
   <si>
-    <t>Đây là quốc gia nào ?</t>
+    <t>tt3.mp4</t>
   </si>
   <si>
-    <t>PHẦN LAN</t>
+    <t>Gấc</t>
   </si>
   <si>
-    <t>TT4.mp4</t>
+    <t>tt4.mp4</t>
   </si>
   <si>
-    <t>Trong bài thơ Nhớ rừng (Thế Lữ), chú hổ cảm thấy "bị nhục nhằn" vì phải "chịu ngang bầy" với những loài vật nào?</t>
+    <t>Định lý nhị thức, phép tính vi phân, tích phân là những công trình nghiên cứu của nhà khoa học nào?</t>
   </si>
   <si>
-    <t>Báo, gấu</t>
+    <t>Issac Newton</t>
   </si>
   <si>
-    <t>Thành phần hóa học chính trong đất sét gồm có nước và 2 oxit nào?</t>
+    <t>Nếu điện trở mạch ngoài rất nhỏ, không đáng kể, cường độ dòng điện rất lớn và chỉ phụ thuộc vào suất điện động và điện trở trong của chính nguồn điện, ta có hiện tượng gì?</t>
   </si>
   <si>
-    <t>Al2O3 và SiO2</t>
+    <t>Đoản mạch</t>
   </si>
   <si>
-    <t>Tại sao bộ xương của người khi mới sinh có tới 300 chiếc mà khi trưởng thành chỉ còn 206 chiếc?</t>
+    <t>Vì sao ở xứ lạnh người ta không dùng nhiệt kế thủy ngân mà dùng nhiệt kế rượu?</t>
   </si>
   <si>
-    <t>Vì khi con người lớn lên, một số bộ xương sẽ ghép lại với nhau</t>
+    <t>Vì nhiệt độ đông đặc của rượu thấp hơn nhiệt độ đông đặc của thủy ngân</t>
   </si>
   <si>
-    <t>Truyện ngắn nào đã được chính tác giả nhận xét: "là truyện của một đời, và được kể trong một đêm. Đó là cái đêm dài như cả một đời"?</t>
+    <t>Câu chuyện Ngưu Lang-Chức Nữ có 2 phiên bản, một của Việt Nam và một của Trung Quốc. Phiên bản Việt Nam có tên gọi là gì?</t>
   </si>
   <si>
-    <t>Rừng xà nu</t>
+    <t>Ông Ngâu Bà Ngâu</t>
   </si>
   <si>
-    <t>Đường trung bình của một tam giác chia tam giác thành hai phần. Vậy tỉ lệ diện tích giữa phần hình lớn hơn và phần hình nhỏ hơn là bao nhiêu?</t>
+    <t>"Đội quân tóc dài" xuất hiện trong cao trào cách mạng nào vào năm 1960?</t>
   </si>
   <si>
-    <t>3</t>
+    <t>Phong trào Đồng Khởi</t>
   </si>
   <si>
-    <t>Trong chiến tranh xâm lược Miền Nam Việt Nam, Mỹ đã hai lần đem không quân tấn công phá hoại miền Bắc. Hãy cho biết hai lần đó diễn ra vào những năm nào?</t>
+    <t>Cách một ngày lại lên cơn sốt, ban đầu là rét run, sau đó là sốt cao kéo dài, cuối cùng là ra mồ hôi và hạ sốt là những triệu chứng của bệnh gì?</t>
   </si>
   <si>
-    <t>1968 và 1972</t>
+    <t>Sốt rét</t>
   </si>
   <si>
-    <t>Tỉnh nào được nhắc đến trong những câu ca dao sau: "... có núi Vọng Phu/ Có đầm Thị Nại, có cù lao Xanh"?</t>
+    <t>Điện Kremli - công trình kiến trúc nổi tiếng thế giới nằm tại quốc gia nào?</t>
   </si>
   <si>
-    <t>Bình Định</t>
+    <t>Nga</t>
   </si>
   <si>
-    <t>Năm 1969, Mỹ chuyển hướng kế hoạch xâm lược ở Đông Dương sang “dùng người bản xứ trị người bản xứ” bằng các sách lược “Việt Nam hóa chiến tranh”, “... hóa chiến tranh” và “… hóa chiến tranh”. Điền từ còn thiếu vào dấu “…”</t>
+    <t>Một số chất khi bị tia này đập vào sẽ phát ra ánh sáng như: thủy tinh phát màu xanh lục, vôi phát ra màu da cam. Tia này là tia gì?</t>
   </si>
   <si>
-    <t>Lào, Khmer</t>
+    <t>Chùm tia electron / Chùm tia cathode</t>
   </si>
   <si>
-    <t>Tỉnh nào của nước ta có nghĩa là "vùng nước đen" khi dịch theo tiếng Khmer?</t>
+    <t>Ancol bậc II bị oxi hoá nhẹ bằng CuO tạo thành chất gì?</t>
   </si>
   <si>
-    <t>Cà Mau</t>
+    <t>Ketone</t>
   </si>
   <si>
-    <t>"Ruộng lúa ngàn dặm đỏ như cháy/ Đồng quê than vãn trông vào đâu" là những câu thơ Nguyễn Phi Khanh miêu tả tình cảnh nhân dân vào cuối triều đại nào?</t>
+    <t>Các tác giả Hoài Thanh - Hoài Chân đã trân trọng dành những dòng đầu tiên của cuốn Thi nhân Việt Nam để gửi lời "cung chiêu anh hồn" thi sĩ nào?</t>
   </si>
   <si>
-    <t>Trần</t>
+    <t>Tản Đà</t>
   </si>
   <si>
-    <t>Phải xếp bao nhiêu hình lập phương nhỏ 1 centimet khối để được một hình lập phương có diện tích toàn phần là 150 centimet vuông?</t>
+    <t>Một chiếc bút chì dài 10 cm được đặt thẳng đứng cách 100 cm trước thấu kính có tiêu cự là 50 cm. Ảnh của bút chì sẽ lộn ngược và có chiều cao là bao nhiêu cm?</t>
   </si>
   <si>
-    <t>125</t>
+    <t>10</t>
   </si>
   <si>
-    <t>Có 12 quả gồm có: 6 quả táo, 4 quả ổi và 2 quả lê. Có bao nhiêu cách chọn ra 6 quả mà trong đó số quả táo bằng số quả ổi?</t>
+    <t>Than đá tập trung nhiều nhất ở bán cầu nào?</t>
   </si>
   <si>
-    <t>170</t>
+    <t>Bán cầu Bắc</t>
   </si>
   <si>
-    <t>HDI là tên viết tắt của chỉ số nào?</t>
+    <t>Vùng nước biển được tạo bởi các doi cát chạy song song với bờ biển rồi khép kín lại chỉ để thông với biển bằng các cửa lạch nhỏ được gọi là gì?</t>
   </si>
   <si>
-    <t>Chỉ số phát triển con người</t>
+    <t>Phá / Đầm phá</t>
   </si>
   <si>
-    <t>Ba nhân tố môi trường để hạt nảy mầm là gì?</t>
+    <t>Một tam giác có tỷ lệ các góc là 1:2:3. Hỏi tam giác đó là tam giác gì?</t>
   </si>
   <si>
-    <t>Nước, O2, nhiệt độ</t>
+    <t>Tam giác vuông</t>
   </si>
   <si>
-    <t>"Lúc nào cũng vậy, dù quay sợi, thái cỏ ngựa, dệt vải, chẻ củi, hay đi cõng nước dưới khe suối lên, cô ấy cũng cúi mặt, mặt buồn rười rượi". "Cô ấy" là nhân vật ở truyện nào, có tên gì?</t>
+    <t>Thành phần chính của vỏ trứng là hợp chất hóa học nào?</t>
   </si>
   <si>
-    <t>Mị trong Vợ chồng A Phủ</t>
+    <t>Canxi carbonate (CaCO3)</t>
   </si>
   <si>
-    <t>Mỗi bán cầu đều có bốn khối khí chính là cực, ôn đới và hai loại khối khí nào nữa?</t>
+    <t>Luồng hạt nhân và hạt cơ bản, từ không gian vũ trụ rơi vào Trái Đất, gây ra nhiều phản ứng hạt nhân trong khí quyển gọi là ...</t>
   </si>
   <si>
-    <t>Chí tuyến và xích đạo</t>
+    <t>tia vũ trụ</t>
   </si>
   <si>
-    <t>Tích bốn số tự nhiên liên tiếp là 3024. Hãy tìm bốn số tự nhiên này.</t>
+    <t>Cặp vợ chồng nghệ sĩ Đặng Hùng - Vương Linh là những nghệ sĩ nổi tiếng trong lĩnh vực nghệ thuật nào?</t>
   </si>
   <si>
-    <t>6, 7, 8, 9 (Chúng ta giải phương trình x - 1 * x * x + 1 * x + 2 = 3024 , suy ra x = 7, các số còn lại sẽ tính ra được như trên.)</t>
+    <t>Múa</t>
   </si>
   <si>
-    <t>Cấu tạo của da gồm những lớp nào?</t>
+    <t>Quốc gia nào ở châu Á có một người đã qua đời vẫn được tôn vinh là Chủ tịch vĩnh viễn?</t>
   </si>
   <si>
-    <t>Lớp biểu bì, lớp bì, lớp mỡ dưới da</t>
+    <t>Cộng hòa dân chủ nhân dân Triều Tiên</t>
   </si>
   <si>
-    <t>Những địa danh nào còn thiếu trong bài ca dao sau: "... sáu tỉnh em ơi/ ... chín ngọn cùng khơi một nguồn/ Sông Hương nước chảy trong luôn/ Núi Ngự danh tiếng cả muôn dặm ngoài"?</t>
+    <t>"Năm 1888, ông từ trần. Cánh đồng Ba Tri rợp trắng khăn tang khóc thương ông. Cuộc đời ông là một tấm gương sáng ngời về nghị lực và đạo đức". Ông là ai?</t>
   </si>
   <si>
-    <t>Nam Kỳ, Cửu Long</t>
+    <t>Nguyễn Đình Chiểu</t>
   </si>
   <si>
-    <t>Bạn hãy trả lời câu hỏi của nhóm phóng viên Olympia.</t>
+    <t>Trong thời kỳ kháng chiến chống Mỹ cứu nước, chiến khu Đ là một căn cứ quan trọng hàng đầu của miền Đông Nam Bộ. Di tích chiến khu này nay nằm ở tỉnh nào?</t>
   </si>
   <si>
-    <t>Trần Hưng Đạo</t>
+    <t>Đồng Nai</t>
   </si>
   <si>
-    <t>VD3.mp4</t>
+    <t>Từ năm 2009, Thủ tướng Chính phủ đã quyết định lấy ngày 19/4 hàng năm là "Ngày ... Việt Nam".</t>
   </si>
   <si>
-    <t>Đây là bộ phim năm 1959 của hai đạo diễn Nguyễn Hồng Nghi và Phạm Hiếu Dân do Hãng phim truyện Việt Nam sản xuất. Đây cũng là bộ phim truyện đầu tiên của miền Bắc Việt Nam sau năm 1954 và cũng là bộ phim truyện đầu tiên của Điện ảnh Cách mạng Việt Nam. Hãy cho biết tên của bộ phim trên</t>
+    <t>Văn hóa các dân tộc</t>
   </si>
   <si>
-    <t>Chung một dòng sông</t>
+    <t>Đầu năm 1935, đồng chí nào đã dẫn đầu đoàn đại biểu của Đảng đi Mát-xcơ-va dự Đại hội lần thứ VII Quốc tế cộng sản?</t>
   </si>
   <si>
-    <t>X: KI, Y: NaCl, Z: KBr</t>
+    <t>Lê Hồng Phong</t>
   </si>
   <si>
-    <t>VD1.mp4</t>
+    <t>"Nhà nước ba năm mở một khoa/ Trường Nam thi lẫn với Trường Hà". Khoa thi được Trần Tế Xương nhắc tới là khoa thi nào và được tổ chức ở đâu?</t>
   </si>
   <si>
-    <t>Một người bán táo sắp xếp số táo thành hình chóp tam giác đều với 10 tầng. Số táo ở mỗi tầng xếp thành một hình tam giác đều, ngoại trừ tầng trên cùng chỉ có duy nhất một trái táo. Hỏi có tất cả bao nhiêu táo được xếp?</t>
+    <t>Thi Hương, ở Nam Định</t>
   </si>
   <si>
-    <t>220</t>
+    <t>Dân gian ta có câu: "Trên trời có ông sao Tua/ Ở làng Minh Giám có vua ...". Trong dấu ... là nhân vật nào?</t>
   </si>
   <si>
-    <t>Sự chuyển hoá vật chất và năng lượng của cơ thể phụ thuộc vào sự điều khiển của những hệ cơ quan nào?</t>
+    <t>Bá Vành</t>
   </si>
   <si>
-    <t>Hệ thần kinh và nội tiết</t>
+    <t>Những nước Cộng hòa tách ra từ Liên bang Xô viết đã thành lập cộng đồng chung với tên gọi là gì?</t>
   </si>
   <si>
-    <t>Tại đây, vào tháng 7/1930, đã có Hội nghị của Thường vụ Trung ương lâm thời Đảng Cộng sản Việt Nam gồm các đồng chí Trịnh Đình Cửu - Bí thư Trung ương lâm thời, và các ủy viên: Nguyễn Phong Sắc, Nguyễn Đức Cảnh, Trần Văn Lan và đồng chí Trần Phú. Trong Hội nghị, đồng chí Trần Phú được phân công viết bản Dự thảo Luận cương chính trị. Các nhân chứng kể lại: trong thời gian viết dự thảo Luận cương chính trị, đồng chí Trần Phú thường ngồi bệt xuống nền nhà, lấy phản nằm làm bàn viết. Ngoài ra, tại đây còn có nhiều cuộc họp để thảo luận những vấn đề chuẩn bị cho Hội nghị Trung ương lần thứ I tháng 10/1930 tại Hương Cảng (Trung Quốc). Địa điểm tổ chức hội nghị và là nơi Tổng bí thư Trần Phú soạn thảo Luận cương chính trị đầu tiên của Đảng được nhắc tới ở đây là nơi nào?</t>
+    <t>Cộng đồng các Quốc gia Độc lập (SNG)</t>
   </si>
   <si>
-    <t>Số 90 phố Thợ Nhuộm</t>
+    <t>Giả sử kim phút và kim giây của đồng hồ đang gặp nhau tại 1 điểm. Hỏi sau bao lâu nữa chúng lại gặp nhau lần 2?</t>
   </si>
   <si>
-    <t>Bạn hãy trả lời câu sau bằng tiếng Anh.</t>
+    <t xml:space="preserve"> phút (Trong 1 phút, kim phút đi được  vòng, kim giây đi được 1 vòng. Vậy nên trong 1 phút, kim giây đi nhanh hơn kim phút  vòng. Sau 1 phút, kim giây còn cách kim phút  vòng, để đuổi kịp kim phút cần thêm  :  =  phút. Thời gian để hai kim gặp nhau: 1 phút +  phút =  phút.)</t>
   </si>
   <si>
-    <t>Albert Einstein</t>
+    <t>Trong các tỉnh sau: An Giang, Hưng Yên, Sóc Trăng, Nam Định, Trà Vinh, những tỉnh nào không giáp biển?</t>
   </si>
   <si>
-    <t>VD4.mp4</t>
+    <t>An Giang, Hưng Yên</t>
   </si>
   <si>
-    <t>Lúc đầu số dầu trong thùng thứ nhất bằng 1/3 thùng đó, số dầu trong thùng thứ hai bằng 1/4 thùng đó. Người ta đổ thêm cho đầy dầu ở mỗi thùng chỉ cần phải đổ thêm tất cả 20 lít. Biết số dầu lúc đầu ở mỗi thùng là bằng nhau, hỏi thùng thứ nhất và thùng thứ hai lần lượt chứa đầy được bao nhiêu lít dầu?</t>
+    <t>"Hồ Chí Minh - chân dung một con người", "Nước về Bắc Hưng Hải", "Nguyễn Văn Trỗi" là những bộ phim xuất sắc của đạo diễn - nghệ sĩ nhân dân nào?</t>
   </si>
   <si>
-    <t>12, 16 (Gọi số dầu 2 thùng chứa được tối đa lần lượt là x và y, ta có số dầu 2 thùng ban đầu bằng nhau, suy ra 1/3x = 1/4y. Đổ 20 lít vào mỗi thùng vào thì làm đầy bình, suy ra 2/3x+20 = 3/4x+20. Vậy x = 12 và y = 16.)</t>
+    <t>Bùi Đình Hạc</t>
   </si>
   <si>
-    <t>Năm Mậu Thìn 248, Lệ Hải bà vương đã đánh tan quân Ngô tại núi Nưa, Triệu Sơn, Thanh Hóa làm quân giặc khiếp đảm tôn phục với câu cửa miệng "Hoành qua đường hổ dị. Đối diện bà Vương nan" (Múa giáo chống hổ dễ. Đối mặt vua bà khó). Hãy cho biết Lệ Hải bà vương là ai?</t>
+    <t>Trào lưu văn học nào xuất hiện ở Việt Nam sau CMT8/1945, phát triển vượt bậc và chiếm ưu thế tuyệt đối trong số lượng sáng tác thời bấy giờ?</t>
   </si>
   <si>
-    <t>Triệu Thị Trinh</t>
+    <t>Hiện thực chủ nghĩa xã hội</t>
   </si>
   <si>
-    <t>Năm 1283, trước khi chống quân Nguyên Mông lần thứ 2, vua Trần Nhân Tông đã triệu tập bô lão, quần thần tại một hội nghị để bàn kế sách chống giặc. Cũng chính tại hội nghị này, vì còn trẻ tuổi nên Trần Quốc Toản không được tham dự mà đứng bóp nát quả cam trong tay. Bạn hãy cho biết tên của hội nghị này?</t>
+    <t>Bộ ba ... được gọi là "Tuế hàn tam hữu" hay "Đông thiên tam hữu", ba người bạn trong tiết trời giá lạnh của ngày đông. Trong ... là gì?</t>
   </si>
   <si>
-    <t>Hội nghị Bình Than</t>
+    <t>Tùng, Trúc, Mai</t>
   </si>
   <si>
-    <t>Sự kết cặp không đúng trong nhân đôi ADN làm phát sinh dạng đột biến gen nào?</t>
+    <t>Năm 2023, ngày Valentine (14-2) rơi vào ngày thứ 3, vậy đến năm gần nhất tiếp theo nào ngày Valentine lại rơi vào thứ 3?</t>
   </si>
   <si>
-    <t>Thay thế một cặp nucleotide</t>
+    <t>2034</t>
   </si>
   <si>
-    <t>Blood</t>
+    <t>Tùy theo tỉ lệ khối lượng các nguyên tố có trong cơ thể sống mà các nhà khoa học chia các nguyên tố thành 2 loại cơ bản nào?</t>
   </si>
   <si>
-    <t>VD2.mp4</t>
+    <t>Đa lượng và vi lượng</t>
   </si>
   <si>
-    <t>Có hai số ban đầu lần lượt là 567 và 433. Nếu số đầu bớt đi một phần và cộng phần đó vào số còn lại thì ta sẽ có tỉ số giữa hai số mới là 1/9. Hãy cho biết phần được bớt đi là bao nhiêu?</t>
+    <t>Tủy sống của con người có 2 chỗ phình to ra. Đó là những chỗ nào?</t>
   </si>
   <si>
-    <t>467</t>
+    <t>Cổ và thắt lưng</t>
   </si>
   <si>
-    <t>Hoàn thành câu sau: "Cái … không xương nhiều đường lắt léo"</t>
+    <t>Vị nữ hoàng đế duy nhất trong lịch sử Việt Nam đã sống ở thế kỷ nào?</t>
   </si>
   <si>
-    <t>lưỡi</t>
-  </si>
-  <si>
-    <t>Nguyên tố nào tạo ra nhiều hợp chất nhất?</t>
-  </si>
-  <si>
-    <t>Cacbon</t>
-  </si>
-  <si>
-    <t>Bắc Cực là nơi bắt đầu của tất cả các vĩ tuyến trên Trái Đất. Đúng hay sai?</t>
-  </si>
-  <si>
-    <t>Sai</t>
+    <t>13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d, m, yy"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -586,22 +580,17 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Arial"/>
+    </font>
     <font/>
     <font>
       <b/>
       <sz val="14.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color theme="1"/>
-      <name val="Quattrocento Sans"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -615,11 +604,12 @@
       <name val="Quattrocento Sans"/>
     </font>
     <font>
-      <sz val="14.0"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11.0"/>
       <color rgb="FF3A3A3A"/>
       <name val="Arial"/>
@@ -725,20 +715,29 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="48">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -749,40 +748,39 @@
     <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf quotePrefix="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf quotePrefix="1" borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf quotePrefix="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -790,8 +788,8 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -804,12 +802,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -818,26 +810,8 @@
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf quotePrefix="1" borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf quotePrefix="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf quotePrefix="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -846,19 +820,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
@@ -868,21 +833,6 @@
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf quotePrefix="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1116,7 +1066,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="10.1" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="92.4"/>
+    <col customWidth="1" min="1" max="1" width="75.7"/>
     <col customWidth="1" min="2" max="2" width="25.8"/>
     <col customWidth="1" min="3" max="3" width="15.6"/>
     <col customWidth="1" min="4" max="4" width="17.5"/>
@@ -1178,19 +1128,19 @@
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>10.0</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5">
         <v>1.0</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>1.0</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="3"/>
@@ -1218,19 +1168,19 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>10.0</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
         <v>1.0</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>2.0</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1256,19 +1206,19 @@
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>10.0</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
         <v>1.0</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>3.0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -1291,22 +1241,22 @@
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>10.0</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
         <v>1.0</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>4.0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1332,19 +1282,19 @@
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>10.0</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
         <v>1.0</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>5.0</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1370,19 +1320,19 @@
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>10.0</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
         <v>1.0</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>6.0</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1408,19 +1358,19 @@
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>10.0</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
         <v>1.0</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>7.0</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1443,22 +1393,22 @@
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="10">
+        <v>41821.0</v>
+      </c>
+      <c r="C9" s="5">
         <v>10.0</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
         <v>1.0</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>8.0</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1478,26 +1428,26 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" ht="17.25" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1518,25 +1468,25 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" ht="17.25" customHeight="1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>10.0</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12">
         <v>2.0</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="13">
         <v>2.0</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1556,25 +1506,25 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="C12" s="5">
         <v>10.0</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12">
         <v>2.0</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="13">
         <v>3.0</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1594,25 +1544,25 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>10.0</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12">
         <v>2.0</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="13">
         <v>4.0</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1632,25 +1582,25 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="C14" s="5">
         <v>10.0</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12">
         <v>2.0</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="13">
         <v>5.0</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1670,25 +1620,25 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="C15" s="5">
         <v>10.0</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12">
         <v>2.0</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="13">
         <v>6.0</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1708,25 +1658,25 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="C16" s="5">
         <v>10.0</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12">
         <v>2.0</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="13">
         <v>7.0</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1746,25 +1696,25 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="C17" s="5">
         <v>10.0</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12">
         <v>2.0</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="13">
         <v>8.0</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1784,25 +1734,25 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="C18" s="5">
         <v>10.0</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12">
         <v>2.0</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="13">
         <v>9.0</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1822,25 +1772,25 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="C19" s="5">
         <v>10.0</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12">
         <v>2.0</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="13">
         <v>10.0</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1860,25 +1810,25 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="C20" s="5">
         <v>10.0</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12">
         <v>2.0</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="13">
         <v>11.0</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1898,25 +1848,25 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="C21" s="5">
         <v>10.0</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12">
         <v>2.0</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="13">
         <v>12.0</v>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="11"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -1936,26 +1886,26 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" ht="17.25" customHeight="1">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="C22" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="H22" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="I22" s="17" t="s">
         <v>51</v>
-      </c>
-      <c r="C22" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="H22" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1976,25 +1926,25 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="12">
+      <c r="C23" s="5">
         <v>10.0</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12">
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15">
         <v>3.0</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="16">
         <v>2.0</v>
       </c>
-      <c r="I23" s="7"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -2014,25 +1964,25 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="12">
+      <c r="C24" s="5">
         <v>10.0</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15">
         <v>3.0</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="16">
         <v>3.0</v>
       </c>
-      <c r="I24" s="7"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -2052,25 +2002,25 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" ht="17.25" customHeight="1">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="12">
+      <c r="C25" s="5">
         <v>10.0</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12">
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15">
         <v>3.0</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="16">
         <v>4.0</v>
       </c>
-      <c r="I25" s="7"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -2090,25 +2040,25 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" ht="17.25" customHeight="1">
-      <c r="A26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="12">
+      <c r="A26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="5">
         <v>10.0</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12">
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15">
         <v>3.0</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="16">
         <v>5.0</v>
       </c>
-      <c r="I26" s="7"/>
+      <c r="I26" s="8"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -2128,25 +2078,25 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" ht="17.25" customHeight="1">
-      <c r="A27" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="12">
+      <c r="B27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="5">
         <v>10.0</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12">
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15">
         <v>3.0</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="16">
         <v>6.0</v>
       </c>
-      <c r="I27" s="7"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -2166,25 +2116,25 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" ht="17.25" customHeight="1">
-      <c r="A28" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="12">
+      <c r="B28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="5">
         <v>10.0</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12">
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15">
         <v>3.0</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="16">
         <v>7.0</v>
       </c>
-      <c r="I28" s="7"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -2204,25 +2154,25 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" ht="17.25" customHeight="1">
-      <c r="A29" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="12">
+      <c r="B29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="5">
         <v>10.0</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12">
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15">
         <v>3.0</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="16">
         <v>8.0</v>
       </c>
-      <c r="I29" s="7"/>
+      <c r="I29" s="8"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -2242,25 +2192,25 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" ht="17.25" customHeight="1">
-      <c r="A30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="12">
+      <c r="B30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="5">
         <v>10.0</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12">
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15">
         <v>3.0</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="16">
         <v>9.0</v>
       </c>
-      <c r="I30" s="7"/>
+      <c r="I30" s="8"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -2280,25 +2230,25 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" ht="17.25" customHeight="1">
-      <c r="A31" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="12">
+      <c r="B31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="5">
         <v>10.0</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12">
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15">
         <v>3.0</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="16">
         <v>10.0</v>
       </c>
-      <c r="I31" s="7"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2318,25 +2268,25 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" ht="17.25" customHeight="1">
-      <c r="A32" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="12">
+      <c r="B32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="5">
         <v>10.0</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12">
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15">
         <v>3.0</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="16">
         <v>11.0</v>
       </c>
-      <c r="I32" s="7"/>
+      <c r="I32" s="8"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -2356,25 +2306,25 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" ht="17.25" customHeight="1">
-      <c r="A33" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="12">
+      <c r="B33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="5">
         <v>10.0</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12">
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15">
         <v>3.0</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="16">
         <v>12.0</v>
       </c>
-      <c r="I33" s="7"/>
+      <c r="I33" s="8"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2394,25 +2344,25 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" ht="17.25" customHeight="1">
-      <c r="A34" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="12">
+      <c r="B34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="5">
         <v>10.0</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12">
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15">
         <v>3.0</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="16">
         <v>13.0</v>
       </c>
-      <c r="I34" s="7"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -2432,25 +2382,25 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" ht="17.25" customHeight="1">
-      <c r="A35" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="12">
+      <c r="B35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="5">
         <v>10.0</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12">
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15">
         <v>3.0</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="16">
         <v>14.0</v>
       </c>
-      <c r="I35" s="7"/>
+      <c r="I35" s="8"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -2470,25 +2420,25 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" ht="17.25" customHeight="1">
-      <c r="A36" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="12">
+      <c r="B36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="5">
         <v>10.0</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12">
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15">
         <v>3.0</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="16">
         <v>15.0</v>
       </c>
-      <c r="I36" s="7"/>
+      <c r="I36" s="8"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -2508,25 +2458,25 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" ht="17.25" customHeight="1">
-      <c r="A37" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="12">
+      <c r="B37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="5">
         <v>10.0</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12">
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15">
         <v>3.0</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="16">
         <v>16.0</v>
       </c>
-      <c r="I37" s="8"/>
+      <c r="I37" s="11"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -2574,8 +2524,8 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" ht="24.75" customHeight="1">
-      <c r="A39" s="16" t="s">
-        <v>81</v>
+      <c r="A39" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -2596,8 +2546,8 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" ht="27.0" customHeight="1">
-      <c r="A40" s="17" t="s">
-        <v>82</v>
+      <c r="A40" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -2618,8 +2568,8 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" ht="17.25" customHeight="1">
-      <c r="A41" s="17" t="s">
-        <v>83</v>
+      <c r="A41" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2640,8 +2590,8 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" ht="17.25" customHeight="1">
-      <c r="A42" s="17" t="s">
-        <v>84</v>
+      <c r="A42" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -29543,93 +29493,93 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="4">
+      <c r="B2" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="5">
         <v>10.0</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" ht="34.5" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="4">
+      <c r="B3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="5">
         <v>10.0</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" ht="42.0" customHeight="1">
-      <c r="A4" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="4">
+      <c r="B4" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="5">
         <v>10.0</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" ht="30.75" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="4">
+      <c r="B5" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="5">
         <v>10.0</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" ht="24.0" customHeight="1">
-      <c r="A6" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="4">
+      <c r="B6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="5">
         <v>10.0</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="23" t="s">
+      <c r="B7" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -30655,84 +30605,84 @@
       </c>
     </row>
     <row r="2" ht="33.75" customHeight="1">
-      <c r="A2" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="4">
+      <c r="B2" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="5">
         <v>40.0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" ht="31.5" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="4">
+      <c r="B3" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="5">
         <v>40.0</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="A4" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="5">
         <v>40.0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="5">
         <v>40.0</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>108</v>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="25" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -31732,37 +31682,37 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="10.1" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="91.0"/>
-    <col customWidth="1" min="2" max="2" width="60.7"/>
+    <col customWidth="1" min="1" max="1" width="65.8"/>
+    <col customWidth="1" min="2" max="2" width="29.8"/>
     <col customWidth="1" min="3" max="26" width="10.9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="4" t="s">
         <v>110</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="C2" s="37">
         <v>20.0</v>
@@ -31772,11 +31722,11 @@
       <c r="F2" s="39"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="4" t="s">
         <v>112</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C3" s="37">
         <v>20.0</v>
@@ -31786,11 +31736,11 @@
       <c r="F3" s="38"/>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="40" t="s">
+      <c r="A4" s="4" t="s">
         <v>114</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C4" s="37">
         <v>20.0</v>
@@ -31800,11 +31750,11 @@
       <c r="F4" s="38"/>
     </row>
     <row r="5" ht="40.5" customHeight="1">
-      <c r="A5" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="4" t="s">
         <v>116</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="C5" s="37">
         <v>20.0</v>
@@ -31814,11 +31764,11 @@
       <c r="F5" s="38"/>
     </row>
     <row r="6">
-      <c r="A6" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="4" t="s">
         <v>118</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C6" s="37">
         <v>20.0</v>
@@ -31828,11 +31778,11 @@
       <c r="F6" s="38"/>
     </row>
     <row r="7">
-      <c r="A7" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="4" t="s">
         <v>120</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="C7" s="37">
         <v>20.0</v>
@@ -31842,11 +31792,11 @@
       <c r="F7" s="38"/>
     </row>
     <row r="8">
-      <c r="A8" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="4" t="s">
         <v>122</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="C8" s="37">
         <v>20.0</v>
@@ -31856,11 +31806,11 @@
       <c r="F8" s="38"/>
     </row>
     <row r="9">
-      <c r="A9" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="21" t="s">
         <v>124</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="C9" s="37">
         <v>20.0</v>
@@ -31870,11 +31820,11 @@
       <c r="F9" s="38"/>
     </row>
     <row r="10">
-      <c r="A10" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="4" t="s">
         <v>126</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="C10" s="37">
         <v>20.0</v>
@@ -31884,11 +31834,11 @@
       <c r="F10" s="38"/>
     </row>
     <row r="11">
-      <c r="A11" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="4" t="s">
         <v>128</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C11" s="37">
         <v>20.0</v>
@@ -31898,11 +31848,11 @@
       <c r="F11" s="38"/>
     </row>
     <row r="12">
-      <c r="A12" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="4" t="s">
         <v>130</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="C12" s="37">
         <v>20.0</v>
@@ -31912,11 +31862,11 @@
       <c r="F12" s="38"/>
     </row>
     <row r="13">
-      <c r="A13" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="4" t="s">
         <v>132</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="C13" s="37">
         <v>20.0</v>
@@ -31926,11 +31876,11 @@
       <c r="F13" s="38"/>
     </row>
     <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" s="35" t="s">
+      <c r="A14" s="4" t="s">
         <v>134</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C14" s="37">
         <v>20.0</v>
@@ -31940,11 +31890,11 @@
       <c r="F14" s="38"/>
     </row>
     <row r="15">
-      <c r="A15" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="35" t="s">
+      <c r="A15" s="40" t="s">
         <v>136</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="C15" s="37">
         <v>20.0</v>
@@ -31954,11 +31904,11 @@
       <c r="F15" s="38"/>
     </row>
     <row r="16">
-      <c r="A16" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="4" t="s">
         <v>138</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="C16" s="37">
         <v>20.0</v>
@@ -31968,253 +31918,251 @@
       <c r="F16" s="38"/>
     </row>
     <row r="17">
-      <c r="A17" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="47">
+      <c r="B17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="41">
         <v>20.0</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
     </row>
     <row r="18">
-      <c r="A18" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="49" t="s">
+      <c r="A18" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="50">
+      <c r="B18" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="43">
         <v>30.0</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
     </row>
     <row r="19">
-      <c r="A19" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="49" t="s">
+      <c r="A19" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="50">
+      <c r="B19" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="43">
         <v>30.0</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
     </row>
     <row r="20">
-      <c r="A20" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="49" t="s">
+      <c r="A20" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="50">
+      <c r="B20" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="43">
         <v>30.0</v>
       </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="53" t="s">
+      <c r="A21" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="50">
+      <c r="B21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="43">
         <v>30.0</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="54" t="s">
-        <v>149</v>
-      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="43">
         <v>30.0</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-    </row>
-    <row r="23" ht="117.0" customHeight="1">
-      <c r="A23" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="52" t="s">
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+    </row>
+    <row r="23" ht="22.5" customHeight="1">
+      <c r="A23" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="50">
+      <c r="B23" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="43">
         <v>30.0</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="56" t="s">
-        <v>153</v>
-      </c>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="43">
         <v>30.0</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="50">
+      <c r="C25" s="43">
         <v>30.0</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="50">
+      <c r="C26" s="43">
         <v>30.0</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="43">
         <v>30.0</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="56" t="s">
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="4" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="59" t="s">
+      <c r="B28" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="C28" s="43">
+        <v>30.0</v>
+      </c>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+    </row>
+    <row r="29" ht="41.25" customHeight="1">
+      <c r="A29" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C28" s="50">
+      <c r="B29" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="43">
         <v>30.0</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="B29" s="59" t="s">
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="43">
+        <v>30.0</v>
+      </c>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="C29" s="50">
+      <c r="B31" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="43">
         <v>30.0</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="B30" s="60" t="s">
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="50">
+      <c r="B32" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="43">
         <v>30.0</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B31" s="49" t="s">
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C31" s="50">
+      <c r="B33" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="43">
         <v>30.0</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="C32" s="50">
-        <v>30.0</v>
-      </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="B33" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="C33" s="50">
-        <v>30.0</v>
-      </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+    </row>
     <row r="36" ht="15.75" customHeight="1"/>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
@@ -33181,10 +33129,16 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A15"/>
+    <hyperlink r:id="rId2" ref="A19"/>
+    <hyperlink r:id="rId3" ref="A21"/>
+    <hyperlink r:id="rId4" ref="A24"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -33210,30 +33164,54 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>176</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>178</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>180</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
